--- a/DiscoveryProAdapter_Altium/Project Outputs for DiscoveryProAdapter_Altium/BOM/Bill of Materials-DiscoveryProAdapter_Altium.xlsx
+++ b/DiscoveryProAdapter_Altium/Project Outputs for DiscoveryProAdapter_Altium/BOM/Bill of Materials-DiscoveryProAdapter_Altium.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17472" windowHeight="19380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="24300"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-DiscoveryProA" sheetId="1" r:id="rId1"/>
@@ -439,15 +439,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" customWidth="1"/>
-    <col min="8" max="12" width="16" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="8" max="12" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -507,7 +507,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -529,7 +529,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -551,7 +551,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>

--- a/DiscoveryProAdapter_Altium/Project Outputs for DiscoveryProAdapter_Altium/BOM/Bill of Materials-DiscoveryProAdapter_Altium.xlsx
+++ b/DiscoveryProAdapter_Altium/Project Outputs for DiscoveryProAdapter_Altium/BOM/Bill of Materials-DiscoveryProAdapter_Altium.xlsx
@@ -575,6 +575,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>